--- a/DMSNewVSale_2025-10-29_08-20.xlsx
+++ b/DMSNewVSale_2025-10-29_08-20.xlsx
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>1:0</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
   </si>
   <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
@@ -775,41 +787,74 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="26.25" customHeight="1">
-      <c r="N9" s="13">
-        <v>46</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>21</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>12</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>21</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>22</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="25.5" customHeight="1">
+      <c r="N10" s="13">
+        <v>72</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>25</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>26</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -828,10 +873,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
